--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224956.270024287</v>
+        <v>1269637.715563323</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114769</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7239530.762826907</v>
+        <v>7744651.4187801</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -719,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>310.3716424563169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>116.019853058239</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>70.60344219155412</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>111.2283352494632</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -880,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -911,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>239.8092397409858</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>24.30646610263425</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.4269962650047</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1102,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.774426990978</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1145,10 +1147,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>90.40013928040811</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>300.1179630699521</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>181.5314079874482</v>
+        <v>271.5104525493489</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,16 +1372,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>368.3435991217711</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1423,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1528,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1537,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>75.73201610192</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>350.6453984041286</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348262</v>
+        <v>101.3307376196582</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1850,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924944</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>121.2482518332238</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>47.24726165656977</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2050,10 +2052,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2090,13 +2092,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864462</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>75.41330364725212</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2251,10 +2253,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>159.0614421165687</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>150.1330858937262</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>146.3034971231914</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>55.81450188835453</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>51.58543740429417</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>130.2921385546143</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3004,13 +3006,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>16.73661137786902</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3187,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>28.46809341379804</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3244,13 +3246,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>80.03524407686641</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>40.84698832683126</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3478,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3557,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>62.86434843153574</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3724,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>337.8579025562277</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458145</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>55.31118132063372</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>146.8887806734697</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>263.5010059081368</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4040,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4144,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4186,22 +4188,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>227.6357503970872</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.4724910259512</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>866.7353935451185</v>
+        <v>456.8988997477843</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>434.0385738014885</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>414.7863570268929</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>392.8498212151545</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>371.7660434449588</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884629</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>572.914647509062</v>
+        <v>880.244518351642</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>880.244518351642</v>
       </c>
       <c r="M2" t="n">
-        <v>1674.245717477938</v>
+        <v>880.244518351642</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>880.244518351642</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>882.5260259873601</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1361.464950229789</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1817.550429733972</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>1351.458990130061</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.066928185038</v>
+        <v>993.96957525631</v>
       </c>
       <c r="W2" t="n">
-        <v>1295.560218633203</v>
+        <v>597.5782255566569</v>
       </c>
       <c r="X2" t="n">
-        <v>883.8402198009502</v>
+        <v>589.8986307648082</v>
       </c>
       <c r="Y2" t="n">
-        <v>882.5433537962446</v>
+        <v>472.7068599989103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000791</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>425.3664405251901</v>
       </c>
       <c r="L3" t="n">
-        <v>751.8547856608809</v>
+        <v>425.3664405251901</v>
       </c>
       <c r="M3" t="n">
-        <v>1302.520320645319</v>
+        <v>425.3664405251901</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>425.3664405251901</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>904.305364767619</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.9200589091701</v>
+        <v>855.0190971226209</v>
       </c>
       <c r="C4" t="n">
-        <v>494.9200589091701</v>
+        <v>855.0190971226209</v>
       </c>
       <c r="D4" t="n">
-        <v>494.9200589091701</v>
+        <v>691.7023242493916</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7118530620237</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>156.8500788365841</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>156.8500788365841</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>96.1934635164755</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>911.5879131381746</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1289.07942401421</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1644.507552693974</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1691.767416841775</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1411.582968342079</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1129.871500950108</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>855.0190971226209</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>855.0190971226209</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.0860276212358</v>
+        <v>855.0190971226209</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.7353935451184</v>
+        <v>776.2016990565496</v>
       </c>
       <c r="C5" t="n">
-        <v>843.8750675988226</v>
+        <v>753.3413731102538</v>
       </c>
       <c r="D5" t="n">
-        <v>420.5824467838229</v>
+        <v>734.0891563356581</v>
       </c>
       <c r="E5" t="n">
-        <v>398.6459109720846</v>
+        <v>308.1122164835157</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>287.02843871332</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>286.7297803431726</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2095.99197237326</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1699.600622673607</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>1691.921027881758</v>
+        <v>1601.387333393189</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.583757836649</v>
+        <v>1196.05006334808</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>974.3357998282165</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>974.3357998282165</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N6" t="n">
-        <v>1525.001334812655</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.226407393235</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>2142.891942377673</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.7300103455299</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C7" t="n">
-        <v>689.7300103455299</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D7" t="n">
-        <v>526.4132374723006</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
         <v>188.2944935410931</v>
@@ -4726,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>1202.502328002917</v>
+        <v>1520.726443184511</v>
       </c>
       <c r="X7" t="n">
-        <v>959.9384314487219</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.5956631384639</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1029.323819803441</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>602.4230898167409</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>179.1304690017412</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>157.1939331900028</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>136.1101554198071</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>135.8114970496598</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4808,46 +4810,46 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.189048931929</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1862.189048931929</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>1862.189048931929</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>1450.469050099676</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y8" t="n">
-        <v>1449.172184094971</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>695.3677541233694</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>1246.033289107808</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>1246.033289107808</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>1246.033289107808</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>1246.033289107808</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
         <v>792.3900115791711</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1727.553143168988</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W10" t="n">
-        <v>1544.188084595808</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1138.953832970451</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>766.8895914333086</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>766.8895914333086</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>766.8895914333086</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333086</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227573</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>427.2856093136876</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>427.2856093136876</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1227.72722171149</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>1860.024098055718</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>2660.46571045352</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>2660.46571045352</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712747</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3129.740230712747</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3129.740230712747</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2772.250815838996</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2375.859466139344</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>1964.139467307091</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1558.802197261981</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.12879345870397</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.12879345870397</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>72.12879345870397</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>72.12879345870397</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M12" t="n">
-        <v>872.5704058565066</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N12" t="n">
-        <v>990.9088585947961</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2136.875619950715</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C13" t="n">
-        <v>1964.903056829631</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D13" t="n">
-        <v>1801.586283956402</v>
+        <v>444.7764734742344</v>
       </c>
       <c r="E13" t="n">
-        <v>1635.378078109256</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="F13" t="n">
-        <v>1463.516303883816</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="G13" t="n">
-        <v>1297.259334178048</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="H13" t="n">
-        <v>1153.463065686202</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>1053.694497426478</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1111.185825650636</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>1337.713426856473</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>1692.402748150894</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>2083.588543121145</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>2461.080053997181</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2816.508182676944</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>3107.107394598845</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>3234.107524839606</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>3234.107524839606</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>3234.107524839606</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>3234.107524839606</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>3234.107524839606</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>3070.80065735472</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>2795.948253527234</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>2553.384356973039</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y13" t="n">
-        <v>2327.041588662781</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1226.910644500437</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1226.910644500437</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.910644500437</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>801.7864626898374</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>427.2856093136876</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>1227.72722171149</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>1860.024098055718</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>2660.46571045352</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.46571045352</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.18195388424</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2754.827044480652</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2397.337629606902</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2000.946279907249</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1646.759008791967</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1646.759008791967</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M15" t="n">
-        <v>865.1237628945947</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.565375292397</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>478.9271847585218</v>
+        <v>686.6827951484232</v>
       </c>
       <c r="C16" t="n">
-        <v>478.9271847585218</v>
+        <v>514.7102320273392</v>
       </c>
       <c r="D16" t="n">
-        <v>478.9271847585218</v>
+        <v>514.7102320273392</v>
       </c>
       <c r="E16" t="n">
-        <v>478.9271847585218</v>
+        <v>514.7102320273392</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541296</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483617</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W16" t="n">
-        <v>947.8338496229746</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2699530687797</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y16" t="n">
-        <v>478.9271847585218</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4573.117879057176</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5597,13 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>496.5168264363576</v>
+        <v>759.8870954416519</v>
       </c>
       <c r="C19" t="n">
-        <v>324.5442633152736</v>
+        <v>587.9145323205679</v>
       </c>
       <c r="D19" t="n">
-        <v>202.0712816655526</v>
+        <v>587.9145323205679</v>
       </c>
       <c r="E19" t="n">
-        <v>202.0712816655526</v>
+        <v>587.9145323205679</v>
       </c>
       <c r="F19" t="n">
-        <v>202.0712816655526</v>
+        <v>416.0527580951283</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>249.7957883893604</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5680,43 +5682,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100489</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976525</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656288</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578189</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506124</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025259</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>2065.542080025259</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>1785.357631525563</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>1503.646164133592</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.589460012876</v>
+        <v>1228.793760306105</v>
       </c>
       <c r="X19" t="n">
-        <v>913.0255634586812</v>
+        <v>986.2298637519099</v>
       </c>
       <c r="Y19" t="n">
-        <v>686.6827951484232</v>
+        <v>759.8870954416519</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5835,22 +5837,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3918.135197142812</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C22" t="n">
-        <v>3746.162634021728</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D22" t="n">
-        <v>3582.845861148498</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4907.428933628531</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4907.428933628531</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4625.71746623656</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>4350.865062409072</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>4108.301165854878</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>4108.301165854878</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,16 +6077,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
         <v>1828.971033901635</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>569.7211267295927</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>4824.7577092045</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>4824.7577092045</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>4824.7577092045</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K26" t="n">
-        <v>1040.608704104281</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L26" t="n">
-        <v>1970.233751723557</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M26" t="n">
-        <v>2974.519853142615</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,16 +6305,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C28" t="n">
-        <v>154.4092158344085</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D28" t="n">
-        <v>154.4092158344085</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>154.4092158344085</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>154.4092158344085</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>154.4092158344085</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6418,16 +6420,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6466,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3696.34920575453</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4541.493855905342</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
         <v>4541.493855905342</v>
@@ -6549,13 +6551,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>843.7708094800807</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C31" t="n">
-        <v>671.7982463589967</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D31" t="n">
-        <v>671.7982463589967</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E31" t="n">
-        <v>671.7982463589967</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>499.9364721335571</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>333.6795024277893</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1312.677474344533</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X31" t="n">
-        <v>1070.113577790339</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y31" t="n">
-        <v>843.7708094800807</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K32" t="n">
-        <v>533.9931985757493</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.618246195026</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6786,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1019.275630082919</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C34" t="n">
-        <v>847.303066961835</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="D34" t="n">
-        <v>683.9862940886057</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>397.0839012842478</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>230.8269315784799</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1759.191944545161</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1678.348263659437</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1435.784367105243</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y34" t="n">
-        <v>1209.441598794985</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,25 +6940,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991803</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7011,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.604840768015</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>481.632277646931</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>440.3726934784146</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1312.677474344533</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.113577790339</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7708094800807</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7254,22 +7256,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1748.774177950213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.774177950213</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1907.815376917197</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.666404906872</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C40" t="n">
-        <v>913.6938417857882</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.832373618938</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1275.832373618938</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.832373618938</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1663.16949138884</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1236.26876140214</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>894.9981527594859</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>469.0212129073435</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>64.6821504967921</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>64.6821504967921</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.6821504967921</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>64.6821504967921</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>865.1237628945945</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1515.667965162098</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N41" t="n">
-        <v>2316.109577559901</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O41" t="n">
-        <v>3116.551189957703</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3116.551189957703</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957703</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839606</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839606</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2876.618109965855</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2480.226760266202</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2068.50676143395</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1663.16949138884</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282473</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457521</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610371</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339743</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168785</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>336.3796397763832</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K42" t="n">
-        <v>926.8645663447228</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L42" t="n">
-        <v>926.8645663447228</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M42" t="n">
-        <v>1727.306178742525</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N42" t="n">
-        <v>1727.306178742525</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>1727.306178742525</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1727.306178742525</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950177</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.73265094831</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.2356113014214</v>
+        <v>3751.878227437044</v>
       </c>
       <c r="C43" t="n">
-        <v>702.2356113014214</v>
+        <v>3579.90566431596</v>
       </c>
       <c r="D43" t="n">
-        <v>646.3657311795691</v>
+        <v>3416.588891442731</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795691</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483617</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I43" t="n">
-        <v>64.6821504967921</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209501</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S43" t="n">
-        <v>2198.056564597094</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T43" t="n">
-        <v>2198.056564597094</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U43" t="n">
-        <v>1917.872116097398</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V43" t="n">
-        <v>1636.160648705427</v>
+        <v>4443.239368286854</v>
       </c>
       <c r="W43" t="n">
-        <v>1361.30824487794</v>
+        <v>4168.386964459367</v>
       </c>
       <c r="X43" t="n">
-        <v>1118.744348323745</v>
+        <v>4168.386964459367</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.4015800134871</v>
+        <v>3942.044196149109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.241715735278</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>1491.241715735278</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1067.949094920279</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>801.7864626898374</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332089</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1943.235529686989</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2069.742766177495</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N44" t="n">
-        <v>2069.742766177495</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>2069.742766177495</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335422</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839606</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712746</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757379</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353792</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2292.970335480041</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>1896.578985780388</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1896.578985780388</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1491.241715735278</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282473</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457521</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610371</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339743</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168785</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H45" t="n">
-        <v>64.6821504967921</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I45" t="n">
-        <v>64.6821504967921</v>
+        <v>3313.89468267283</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3796397763832</v>
+        <v>3313.89468267283</v>
       </c>
       <c r="K45" t="n">
-        <v>336.3796397763832</v>
+        <v>3509.456675241457</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.9281686795</v>
+        <v>3509.456675241457</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.9281686795</v>
+        <v>3509.456675241457</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.369781077302</v>
+        <v>3509.456675241457</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>4398.937953252928</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950177</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.73265094831</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="C46" t="n">
-        <v>975.8907098999449</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267156</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795691</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209501</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2027.921517116229</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1747.737068616533</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V46" t="n">
-        <v>1747.737068616533</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W46" t="n">
-        <v>1747.737068616533</v>
+        <v>1310.556163447995</v>
       </c>
       <c r="X46" t="n">
-        <v>1505.173172062338</v>
+        <v>1067.9922668938</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>841.6494985835418</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>569.51856287543</v>
+        <v>519.5412919487781</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>39.69551252341609</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529642</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>412.9692391190632</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761909</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>505.5475323587974</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8143,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281034</v>
+        <v>259.1183965798102</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>205.0632038737858</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>91.07600343998024</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8456,7 +8458,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8468,13 +8470,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>451.134864077236</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8535,7 +8537,7 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8544,7 +8546,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>460.2559062950368</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093334</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>675.9633363134637</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222296</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>140.8768188582786</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>831.6987709321238</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,19 +8932,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093334</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>675.9633363134637</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659256</v>
+        <v>500.1648957193109</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222296</v>
+        <v>861.2183961915432</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234432</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>233.0753299089947</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,16 +9245,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>467.0745387486232</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>971.640792401891</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>921.9548738586921</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>198.0542523912748</v>
       </c>
       <c r="N24" t="n">
-        <v>698.7993741930985</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9735,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K26" t="n">
-        <v>617.2823097660786</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9884,10 +9886,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10112,13 +10114,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10197,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K32" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10434,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10586,10 +10588,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>705.1634862205228</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10826,25 +10828,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>356.8654072451554</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10904,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>187.0266028900253</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425243</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>694.5466187251931</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443474</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659254</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11136,19 +11138,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>278.4163741766268</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222294</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.2860305463288</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11300,16 +11302,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425243</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>165.2163502635789</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,28 +11372,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>219.9366000642696</v>
       </c>
       <c r="L45" t="n">
-        <v>766.5034997476804</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.869909423443</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23258,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>54.28812356506171</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.62628970500715</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>56.95740043980163</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23662,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>165.7641609568369</v>
+        <v>68.81241886352696</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>40.43535331127319</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>95.11104415035737</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060527</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>98.77088257713336</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>81.84451217979026</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>14.46131411498402</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>125.8003826660207</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>132.4498071365905</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>90.77286840263298</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>98.77088257713635</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.06616725231285</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>255.3672684113431</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.8902123931291</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>192.0686357123457</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.8366168176657</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>98.81925671296125</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>81.20179205062203</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>106.3724238238633</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>132.0055720445817</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>158.2161645454842</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>44.46812939212492</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>58.6068496012042</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>651423.973904933</v>
+        <v>645479.878946937</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501647.9356370416</v>
+        <v>676559.3103213198</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>501647.9356370416</v>
+        <v>676559.3103213197</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676559.31032132</v>
+        <v>676559.3103213195</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676559.3103213198</v>
+        <v>676559.3103213195</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676559.3103213198</v>
+        <v>676559.3103213197</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676559.3103213197</v>
+        <v>676559.3103213198</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501647.9356370416</v>
+        <v>676559.3103213198</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>501647.9356370415</v>
+        <v>676559.3103213198</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083725</v>
+        <v>436832.0010083722</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083724</v>
+        <v>436832.0010083722</v>
       </c>
       <c r="D2" t="n">
-        <v>436832.0010083725</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="E2" t="n">
-        <v>312571.8840020593</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="F2" t="n">
-        <v>312571.8840020593</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="G2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="H2" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="I2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="J2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530851</v>
       </c>
       <c r="K2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="L2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530856</v>
       </c>
       <c r="M2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="N2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="O2" t="n">
-        <v>312571.8840020593</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="P2" t="n">
-        <v>312571.8840020593</v>
+        <v>421522.8023530854</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.833673612</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346216</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115406</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.268580289</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701962</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208489.0552260627</v>
+        <v>219126.2750134969</v>
       </c>
       <c r="C4" t="n">
         <v>208489.0552260627</v>
@@ -26424,22 +26426,22 @@
         <v>208489.0552260627</v>
       </c>
       <c r="E4" t="n">
-        <v>85463.15776761717</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="F4" t="n">
-        <v>85463.15776761719</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="G4" t="n">
-        <v>115328.9674438159</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="H4" t="n">
-        <v>115328.9674438159</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="I4" t="n">
         <v>115328.9674438159</v>
       </c>
       <c r="J4" t="n">
-        <v>115328.9674438159</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="K4" t="n">
         <v>115328.9674438159</v>
@@ -26454,10 +26456,10 @@
         <v>115328.9674438159</v>
       </c>
       <c r="O4" t="n">
-        <v>85463.15776761717</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="P4" t="n">
-        <v>85463.15776761717</v>
+        <v>115328.9674438159</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216129</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="O5" t="n">
+        <v>77750.06218842969</v>
+      </c>
+      <c r="P5" t="n">
         <v>77750.06218842967</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49158.434377562</v>
-      </c>
-      <c r="P5" t="n">
-        <v>49158.434377562</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25508.03866985562</v>
+        <v>-7460.192896877357</v>
       </c>
       <c r="C6" t="n">
+        <v>137489.8610712694</v>
+      </c>
+      <c r="D6" t="n">
         <v>160896.6947448815</v>
       </c>
-      <c r="D6" t="n">
-        <v>160896.6947448816</v>
-      </c>
       <c r="E6" t="n">
-        <v>102619.3407034179</v>
+        <v>12704.41616419918</v>
       </c>
       <c r="F6" t="n">
-        <v>177950.2918568801</v>
+        <v>228443.7727208398</v>
       </c>
       <c r="G6" t="n">
-        <v>99553.37290929905</v>
+        <v>228443.7727208398</v>
       </c>
       <c r="H6" t="n">
-        <v>228443.7727208399</v>
+        <v>228443.7727208397</v>
       </c>
       <c r="I6" t="n">
         <v>228443.7727208397</v>
       </c>
       <c r="J6" t="n">
-        <v>82910.10278602336</v>
+        <v>101866.5041405507</v>
       </c>
       <c r="K6" t="n">
-        <v>228443.7727208398</v>
+        <v>209797.1723638202</v>
       </c>
       <c r="L6" t="n">
-        <v>228443.7727208398</v>
+        <v>228443.77272084</v>
       </c>
       <c r="M6" t="n">
-        <v>165569.835755466</v>
+        <v>48379.90126567209</v>
       </c>
       <c r="N6" t="n">
-        <v>228443.7727208397</v>
+        <v>228443.7727208399</v>
       </c>
       <c r="O6" t="n">
-        <v>177950.2918568801</v>
+        <v>228443.7727208399</v>
       </c>
       <c r="P6" t="n">
-        <v>177950.2918568802</v>
+        <v>228443.7727208399</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099014</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099014</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162546</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629551</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162546</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162546</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629551</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>82.0557937463397</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>285.2640442864196</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>93.94268159712085</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>31.12997055746393</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27619,10 +27621,10 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>55.08045499971968</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>329.6080546223787</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.8373127599403</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>141.3294527982341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>204.4895554602974</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28071,10 +28073,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>90.5724718017639</v>
+        <v>0.5934272398632174</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28618,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28770,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806207</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>2.304553167391991</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>390.5700052857298</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539687</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.1371666366176</v>
+        <v>236.5429566883244</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>67.90411371775802</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35176,7 +35178,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,13 +35190,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35255,7 +35257,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>437.0840165728146</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>638.6837134790177</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>119.5337906447369</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099016</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099016</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>638.6837134790177</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099016</v>
+        <v>462.7739363632869</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099016</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>209.9034401867724</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>444.6753049152899</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>948.544011889563</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36048,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366107</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="N24" t="n">
-        <v>677.4563459795569</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K26" t="n">
-        <v>581.5177089712693</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36604,10 +36606,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K32" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>666.8514437878999</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>319.4744478891313</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099014</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>657.1153558257613</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099014</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099014</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099014</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.5389922573503</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099014</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>127.7850873641471</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>197.5373662309363</v>
       </c>
       <c r="L45" t="n">
-        <v>743.9884130334508</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099014</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1269637.715563323</v>
+        <v>1268941.054358232</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114769</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7744651.4187801</v>
+        <v>7744651.418780101</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -721,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>116.019853058239</v>
+        <v>30.48722569229581</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>70.60344219155412</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>131.7739790945218</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>334.2553197328297</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -907,16 +907,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>239.8092397409858</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>12.06219323947423</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>130.774426990978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>327.2734776946111</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.1179630699521</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>41.5829146775737</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1350,10 +1350,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>271.5104525493489</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1429,10 +1429,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>75.73201610192</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>4.322062388454969</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068509</v>
       </c>
       <c r="E14" t="n">
         <v>421.7171704536211</v>
@@ -1621,13 +1621,13 @@
         <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>95.32222389022536</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>101.3307376196582</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924944</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>151.8031661589814</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>47.24726165656977</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892164</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2089,16 +2089,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864462</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>102.3847211816509</v>
       </c>
       <c r="C22" t="n">
-        <v>75.41330364725212</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>107.8087278713803</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>150.1330858937262</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.81450188835453</v>
+        <v>155.4435276112268</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>160.4358469856442</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>16.73661137786902</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>15.65115387342335</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,10 +3204,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>28.46809341379804</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3243,16 +3243,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>82.77671483261227</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3559,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="39">
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9811728869526</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>129.2698387885879</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458145</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>138.6743666876955</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>146.8887806734697</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3988,7 +3988,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4155,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>227.6357503970872</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>170.094782347354</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456.8988997477843</v>
+        <v>456.8988997477842</v>
       </c>
       <c r="C2" t="n">
-        <v>434.0385738014885</v>
+        <v>434.0385738014884</v>
       </c>
       <c r="D2" t="n">
-        <v>414.7863570268929</v>
+        <v>414.7863570268928</v>
       </c>
       <c r="E2" t="n">
-        <v>392.8498212151545</v>
+        <v>392.8498212151544</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449588</v>
+        <v>371.7660434449587</v>
       </c>
       <c r="G2" t="n">
         <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884629</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>880.244518351642</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="L2" t="n">
-        <v>880.244518351642</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="M2" t="n">
-        <v>880.244518351642</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="N2" t="n">
-        <v>880.244518351642</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873601</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229789</v>
+        <v>1838.122366836497</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733972</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615875</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489015</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533648</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130061</v>
+        <v>1676.751855212283</v>
       </c>
       <c r="V2" t="n">
-        <v>993.96957525631</v>
+        <v>1319.262440338533</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566569</v>
+        <v>1319.262440338533</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648082</v>
+        <v>907.5424415062798</v>
       </c>
       <c r="Y2" t="n">
-        <v>472.7068599989103</v>
+        <v>876.7472640393144</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237728</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412776</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565626</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294998</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000791</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231749</v>
+        <v>46.14877825422926</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231749</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>425.3664405251901</v>
+        <v>796.7851917762483</v>
       </c>
       <c r="L3" t="n">
-        <v>425.3664405251901</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="M3" t="n">
-        <v>425.3664405251901</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="N3" t="n">
-        <v>425.3664405251901</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
-        <v>904.305364767619</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.4455243905431</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438355</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>855.0190971226209</v>
+        <v>548.7446784859875</v>
       </c>
       <c r="C4" t="n">
-        <v>855.0190971226209</v>
+        <v>376.7721153649035</v>
       </c>
       <c r="D4" t="n">
-        <v>691.7023242493916</v>
+        <v>376.7721153649035</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>210.563909517757</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>96.1934635164755</v>
+        <v>96.19346351647543</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167335</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>911.5879131381746</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.07942401421</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.507552693974</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615875</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615875</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615875</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615875</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841775</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342079</v>
+        <v>1654.922316116175</v>
       </c>
       <c r="V4" t="n">
-        <v>1129.871500950108</v>
+        <v>1373.210848724204</v>
       </c>
       <c r="W4" t="n">
-        <v>855.0190971226209</v>
+        <v>1098.358444896717</v>
       </c>
       <c r="X4" t="n">
-        <v>855.0190971226209</v>
+        <v>965.253415508311</v>
       </c>
       <c r="Y4" t="n">
-        <v>855.0190971226209</v>
+        <v>738.9106471980531</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>776.2016990565496</v>
+        <v>1691.719133247433</v>
       </c>
       <c r="C5" t="n">
-        <v>753.3413731102538</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>734.0891563356581</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>308.1122164835157</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>287.02843871332</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>286.7297803431726</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L5" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L5" t="n">
-        <v>1508.432753835019</v>
-      </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.387333393189</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y5" t="n">
-        <v>1196.05006334808</v>
+        <v>1707.527093498559</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.6538096079925</v>
+        <v>558.1798004659338</v>
       </c>
       <c r="C7" t="n">
-        <v>689.6812464869084</v>
+        <v>386.2072373448498</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>222.8904644716205</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>56.68225862447403</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.53329137545</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>1520.726443184511</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X7" t="n">
-        <v>1278.162546630316</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.819778320058</v>
+        <v>748.3457691779995</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.919330369398</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,19 +4807,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L8" t="n">
         <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>1707.527093498559</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L9" t="n">
-        <v>1307.021068682275</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3625747002551</v>
+        <v>682.0516858538765</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>682.0516858538765</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>518.7349129806472</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>352.5267071335007</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4998,16 +4998,16 @@
         <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>1615.976723257882</v>
       </c>
       <c r="W10" t="n">
-        <v>1623.435208276773</v>
+        <v>1341.124319430395</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.871311722579</v>
+        <v>1098.5604228762</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.528543412321</v>
+        <v>872.2176545659422</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
         <v>2113.800768076616</v>
@@ -5047,22 +5047,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M11" t="n">
-        <v>2110.0395278175</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5080,10 +5080,10 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1688.129489254169</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>608.0932463474637</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C13" t="n">
-        <v>608.0932463474637</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7764734742344</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E13" t="n">
-        <v>278.5682676270879</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F13" t="n">
-        <v>278.5682676270879</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>278.5682676270879</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5208,43 +5208,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100494</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.68826997653</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656293</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2278.350021234658</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.601983369787</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y13" t="n">
-        <v>798.2592150595294</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,22 +5281,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
         <v>4997.579335409525</v>
@@ -5357,25 +5357,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>109.7493563677404</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M15" t="n">
-        <v>939.4897558901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>939.4897558901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
         <v>1828.971033901635</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>686.6827951484232</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="C16" t="n">
-        <v>514.7102320273392</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D16" t="n">
-        <v>514.7102320273392</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E16" t="n">
-        <v>514.7102320273392</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G16" t="n">
         <v>246.0989818976742</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1712.153331232334</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V16" t="n">
-        <v>1430.441863840363</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W16" t="n">
-        <v>1155.589460012876</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X16" t="n">
-        <v>913.0255634586812</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y16" t="n">
-        <v>686.6827951484232</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5533,10 +5533,10 @@
         <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.8870954416519</v>
+        <v>1067.079236022976</v>
       </c>
       <c r="C19" t="n">
-        <v>587.9145323205679</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D19" t="n">
-        <v>587.9145323205679</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>587.9145323205679</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>416.0527580951283</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>249.7957883893604</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5682,43 +5682,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100489</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976525</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656288</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578189</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025259</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025259</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525563</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133592</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306105</v>
+        <v>1726.151869599494</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519099</v>
+        <v>1483.5879730453</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.8870954416519</v>
+        <v>1257.245204735042</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261617</v>
@@ -5740,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5797,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675582</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="C22" t="n">
-        <v>440.3726934784146</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
         <v>1364.825557038856</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>569.7211267295927</v>
+        <v>859.3236365966143</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7485636085087</v>
+        <v>859.3236365966143</v>
       </c>
       <c r="D25" t="n">
-        <v>397.7485636085087</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E25" t="n">
-        <v>397.7485636085087</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F25" t="n">
-        <v>397.7485636085087</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G25" t="n">
         <v>246.0989818976742</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.793760306111</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X25" t="n">
-        <v>986.2298637519162</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.8870954416583</v>
+        <v>1049.48960530868</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>338.650469582768</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6268,7 +6268,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8809303238178</v>
+        <v>875.4793615910734</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.601983369787</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y28" t="n">
-        <v>798.2592150595294</v>
+        <v>1032.493025844838</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.328514724526</v>
+        <v>843.1025083526774</v>
       </c>
       <c r="C31" t="n">
-        <v>412.355951603442</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W31" t="n">
-        <v>1243.401148301044</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.83725174685</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y31" t="n">
-        <v>774.4944834365917</v>
+        <v>1033.268477064743</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>292.0244587153436</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6742,7 +6742,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
         <v>2960.549862354846</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.9456755096874</v>
+        <v>935.3163081599862</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9456755096874</v>
+        <v>763.3437450389022</v>
       </c>
       <c r="D34" t="n">
-        <v>568.9456755096874</v>
+        <v>600.0269721656729</v>
       </c>
       <c r="E34" t="n">
-        <v>568.9456755096874</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F34" t="n">
-        <v>397.0839012842478</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G34" t="n">
-        <v>230.8269315784799</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1594.388941736505</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>1351.82504518231</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.1116442217531</v>
+        <v>1125.482276872052</v>
       </c>
     </row>
     <row r="35">
@@ -6943,16 +6943,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4006.096290254794</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -7019,25 +7019,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.5920494001418</v>
+        <v>775.7107933313494</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2028.967850072827</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1748.783401573131</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1467.07193418116</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1192.219530353673</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1192.219530353673</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>965.8767620434151</v>
       </c>
     </row>
     <row r="38">
@@ -7177,10 +7177,10 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M38" t="n">
         <v>2011.818868109901</v>
@@ -7210,13 +7210,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
-        <v>1907.815376917197</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.7245472657505</v>
+        <v>919.5070618231949</v>
       </c>
       <c r="C40" t="n">
-        <v>380.7519841446665</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="D40" t="n">
-        <v>217.4352112714372</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E40" t="n">
-        <v>217.4352112714372</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7338,46 +7338,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302486</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044861</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>2039.376393044861</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1757.66492565289</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1482.812521825403</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>1240.248625271208</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>1109.673030535261</v>
       </c>
     </row>
     <row r="41">
@@ -7417,13 +7417,13 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>2856.963518260713</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
         <v>3833.214576747414</v>
@@ -7441,19 +7441,19 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>357.5299206506891</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>357.5299206506891</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5299206506891</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M42" t="n">
-        <v>357.5299206506891</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3751.878227437044</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="C43" t="n">
-        <v>3579.90566431596</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="D43" t="n">
-        <v>3416.588891442731</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E43" t="n">
-        <v>3250.380685595584</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F43" t="n">
-        <v>3078.518911370144</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>5115.135670291427</v>
+        <v>2142.640622952598</v>
       </c>
       <c r="T43" t="n">
-        <v>4871.796322517327</v>
+        <v>1899.301275178498</v>
       </c>
       <c r="U43" t="n">
-        <v>4591.611874017632</v>
+        <v>1619.116826678802</v>
       </c>
       <c r="V43" t="n">
-        <v>4443.239368286854</v>
+        <v>1337.405359286831</v>
       </c>
       <c r="W43" t="n">
-        <v>4168.386964459367</v>
+        <v>1337.405359286831</v>
       </c>
       <c r="X43" t="n">
-        <v>4168.386964459367</v>
+        <v>1094.841462732636</v>
       </c>
       <c r="Y43" t="n">
-        <v>3942.044196149109</v>
+        <v>868.4986944223783</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
         <v>839.4070255988738</v>
@@ -7648,7 +7648,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7657,43 +7657,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747413</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3313.89468267283</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3313.89468267283</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3509.456675241457</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L45" t="n">
-        <v>3509.456675241457</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M45" t="n">
-        <v>3509.456675241457</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N45" t="n">
-        <v>3509.456675241457</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O45" t="n">
-        <v>4398.937953252928</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>841.6494985835418</v>
+        <v>913.8534934449018</v>
       </c>
       <c r="C46" t="n">
-        <v>841.6494985835418</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D46" t="n">
-        <v>678.3327257103125</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E46" t="n">
-        <v>512.124519863166</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F46" t="n">
-        <v>512.124519863166</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299896</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L46" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302475</v>
       </c>
       <c r="M46" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N46" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="U46" t="n">
-        <v>1822.202732251165</v>
+        <v>1832.396244838399</v>
       </c>
       <c r="V46" t="n">
-        <v>1540.491264859194</v>
+        <v>1550.684777446428</v>
       </c>
       <c r="W46" t="n">
-        <v>1310.556163447995</v>
+        <v>1275.832373618941</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.9922668938</v>
+        <v>1275.832373618941</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.6494985835418</v>
+        <v>1104.019462156967</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487781</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,19 +7990,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884138</v>
       </c>
       <c r="O2" t="n">
-        <v>39.69551252341609</v>
+        <v>521.1676505099917</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529642</v>
+        <v>521.3520529641989</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>134.0887127655818</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>412.9692391190632</v>
+        <v>506.175924987301</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681972</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>47.10147559401472</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761909</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587974</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>259.1183965798102</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>157.3211482065602</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8218,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,22 +8303,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8695,10 +8695,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>397.6042905607445</v>
+        <v>440.9328573103608</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,16 +8783,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>165.0112248015704</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8941,13 +8941,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>500.1648957193109</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9005,28 +9005,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M15" t="n">
-        <v>861.2183961915432</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M18" t="n">
-        <v>971.640792401891</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M21" t="n">
-        <v>921.9548738586921</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>198.0542523912748</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>268.1550667350203</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,7 +9889,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871911</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9974,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P29" t="n">
-        <v>653.7961895378362</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0580860608543</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>809.386345155451</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M33" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10600,10 +10600,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P35" t="n">
-        <v>578.380983679471</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10667,16 +10667,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>467.0745387486232</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.95407573255603</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>791.8999401147988</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>278.4163741766268</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11162,7 +11162,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>924.3306556055946</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>744.2217369616194</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>219.9366000642696</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.62628970500715</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>42.24616479124361</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>92.94208513471963</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>68.81241886352696</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18.44967133089179</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>95.11104415035737</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>85.87958784329412</v>
       </c>
       <c r="C22" t="n">
-        <v>94.83953384262102</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257713336</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>53.87487727311667</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.46131411498402</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4498071365905</v>
+        <v>32.82078141371821</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257713635</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>9.816990504228954</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>255.3672684113431</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>148.8949699152516</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>113.8902123931291</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>158.1292394637467</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>56.16198359623262</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>94.80950183856751</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>29.75933031836104</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0055720445817</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.46812939212492</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>53.9845582798014</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>645479.878946937</v>
+        <v>645479.8789469369</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676559.3103213198</v>
+        <v>676559.3103213197</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676559.3103213197</v>
+        <v>676559.3103213198</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676559.3103213195</v>
+        <v>676559.3103213197</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676559.3103213195</v>
+        <v>676559.3103213198</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676559.3103213197</v>
+        <v>676559.3103213198</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676559.3103213198</v>
+        <v>676559.31032132</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083722</v>
+        <v>436832.0010083724</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083722</v>
+        <v>436832.0010083725</v>
       </c>
       <c r="D2" t="n">
-        <v>436832.0010083723</v>
+        <v>436832.0010083725</v>
       </c>
       <c r="E2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="F2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="G2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="H2" t="n">
-        <v>421522.8023530852</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="I2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="J2" t="n">
+        <v>421522.8023530852</v>
+      </c>
+      <c r="K2" t="n">
+        <v>421522.8023530852</v>
+      </c>
+      <c r="L2" t="n">
         <v>421522.8023530851</v>
       </c>
-      <c r="K2" t="n">
-        <v>421522.8023530854</v>
-      </c>
-      <c r="L2" t="n">
-        <v>421522.8023530856</v>
-      </c>
       <c r="M2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="N2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="O2" t="n">
         <v>421522.8023530854</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695914</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.833673612</v>
+        <v>23406.83367361232</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.268580289</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701962</v>
+        <v>18646.60035701993</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219126.2750134969</v>
+        <v>219126.275013497</v>
       </c>
       <c r="C4" t="n">
         <v>208489.0552260627</v>
@@ -26432,16 +26432,16 @@
         <v>115328.9674438159</v>
       </c>
       <c r="G4" t="n">
-        <v>115328.9674438158</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="H4" t="n">
-        <v>115328.9674438158</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="I4" t="n">
         <v>115328.9674438159</v>
       </c>
       <c r="J4" t="n">
-        <v>115328.9674438158</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="K4" t="n">
         <v>115328.9674438159</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216129</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26493,13 +26493,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
         <v>77750.06218842969</v>
@@ -26511,7 +26511,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7460.192896877357</v>
+        <v>-7460.192896876906</v>
       </c>
       <c r="C6" t="n">
-        <v>137489.8610712694</v>
+        <v>137489.8610712693</v>
       </c>
       <c r="D6" t="n">
-        <v>160896.6947448815</v>
+        <v>160896.6947448816</v>
       </c>
       <c r="E6" t="n">
-        <v>12704.41616419918</v>
+        <v>12653.38550201504</v>
       </c>
       <c r="F6" t="n">
-        <v>228443.7727208398</v>
+        <v>228392.7420586555</v>
       </c>
       <c r="G6" t="n">
-        <v>228443.7727208398</v>
+        <v>228392.7420586554</v>
       </c>
       <c r="H6" t="n">
-        <v>228443.7727208397</v>
+        <v>228392.7420586555</v>
       </c>
       <c r="I6" t="n">
-        <v>228443.7727208397</v>
+        <v>228392.7420586554</v>
       </c>
       <c r="J6" t="n">
-        <v>101866.5041405507</v>
+        <v>101815.4734783666</v>
       </c>
       <c r="K6" t="n">
-        <v>209797.1723638202</v>
+        <v>209746.1417016354</v>
       </c>
       <c r="L6" t="n">
-        <v>228443.77272084</v>
+        <v>228392.7420586553</v>
       </c>
       <c r="M6" t="n">
-        <v>48379.90126567209</v>
+        <v>48328.87060348756</v>
       </c>
       <c r="N6" t="n">
-        <v>228443.7727208399</v>
+        <v>228392.7420586554</v>
       </c>
       <c r="O6" t="n">
-        <v>228443.7727208399</v>
+        <v>228392.7420586555</v>
       </c>
       <c r="P6" t="n">
-        <v>228443.7727208399</v>
+        <v>228392.7420586555</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539687</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539687</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162546</v>
+        <v>72.45112196162643</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539687</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162546</v>
+        <v>72.45112196162665</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539687</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162546</v>
+        <v>72.45112196162643</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>285.2640442864196</v>
+        <v>370.7966716523628</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>93.94268159712085</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>108.3642784941311</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>88.3764029540032</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>55.08045499971968</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>158.080963243711</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>141.3294527982341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>88.37640295400359</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>128.5602418056115</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5934272398632174</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28332,13 +28332,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-8.278148571889702e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28784,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-4.271194892022196e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.36335840638447e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30878,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539687</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="O2" t="n">
-        <v>2.304553167391991</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539687</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>97.96403816098376</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>390.5700052857298</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25.75844738047305</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539687</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539687</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>236.5429566883244</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>134.9403475485737</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>533.7539620806207</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>444.6058781505029</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35415,10 +35415,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>361.4796159561464</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>142.2641865125919</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366159</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35661,13 +35661,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>462.7739363632869</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35725,28 +35725,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M15" t="n">
-        <v>838.1216156792152</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M18" t="n">
-        <v>948.544011889563</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.1371666366107</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M21" t="n">
-        <v>898.8580933463641</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.7351072494338</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,7 +36609,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>726.150452031167</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P29" t="n">
-        <v>616.220827727605</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>191.6381265752677</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>771.0743027228281</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37320,10 +37320,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P35" t="n">
-        <v>540.8056218692396</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37387,16 +37387,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>444.6753049152899</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.207037443577533</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115403</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37785,16 +37785,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>754.4686772153671</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>257.8052598432935</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>886.8993927061629</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>706.646375151388</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>197.5373662309363</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127374</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
